--- a/file/doc/出仓导出修整后_模板 - 副本.xlsx
+++ b/file/doc/出仓导出修整后_模板 - 副本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,13 +119,14 @@
     <t>合计：</t>
   </si>
   <si>
+    <t>柜重：</t>
+  </si>
+  <si>
+    <t>封条：</t>
+  </si>
+  <si>
     <t>柜号：</t>
-  </si>
-  <si>
-    <t>柜重：</t>
-  </si>
-  <si>
-    <t>封条：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -307,15 +308,6 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -335,15 +327,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -368,10 +351,28 @@
     <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -666,367 +667,367 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="12.25" customWidth="1"/>
-    <col min="14" max="14" width="15.375" customWidth="1"/>
-    <col min="15" max="15" width="13.125" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>43710</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>6402992900</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="5">
         <v>78</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="5">
         <v>936</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="7">
         <v>874</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="7">
         <v>449.28</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="7">
         <v>6.9720000000000004</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="7">
         <v>936</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>43710</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>6403990090</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="5">
         <v>96</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="5">
         <v>636</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="7">
         <v>979.2</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="7">
         <v>273.48</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="7">
         <v>9.4649999999999999</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="7">
         <v>10684.8</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>43710</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>6402992900</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="5">
         <v>96</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="8">
+      <c r="H5" s="22"/>
+      <c r="I5" s="5">
         <v>228</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="7">
         <v>979.2</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="7">
         <v>98.04</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="7">
         <v>9.4649999999999999</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="7">
         <v>3830.4</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>43710</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>6404199000</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="5">
         <v>96</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="8">
+      <c r="H6" s="23"/>
+      <c r="I6" s="5">
         <v>288</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="7">
         <v>979.2</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="7">
         <v>123.84</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="7">
         <v>9.4649999999999999</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="7">
         <v>4838.3999999999996</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="10">
         <f t="shared" ref="G7:L7" si="0">SUM(G3:G6)</f>
         <v>366</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="16">
+      <c r="H7" s="8"/>
+      <c r="I7" s="10">
         <f t="shared" si="0"/>
         <v>2088</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="16">
+      <c r="J7" s="8"/>
+      <c r="K7" s="10">
         <f t="shared" si="0"/>
         <v>3811.6000000000004</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="10">
         <f t="shared" si="0"/>
         <v>944.64</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16">
+      <c r="M7" s="10"/>
+      <c r="N7" s="10">
         <f>SUM(N3:N6)</f>
         <v>20289.599999999999</v>
       </c>
-      <c r="O7" s="17"/>
+      <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
+    <row r="8" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="24"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="26"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
+    <row r="10" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
